--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail10 Features.xlsx
@@ -3533,7 +3533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3544,29 +3544,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3587,115 +3585,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3712,72 +3700,66 @@
         <v>1.026947766037042e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.1217989804153552</v>
+        <v>6.558917914183131e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.530109117001532</v>
+        <v>3.966241143825246e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.558917914183131e-07</v>
+        <v>0.05808429401137178</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.966241143825246e-06</v>
+        <v>0.2704325880691171</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.05808429401137178</v>
+        <v>0.07639664738575927</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2704325880691171</v>
+        <v>1.922304646163181</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07639664738575927</v>
+        <v>2.368216266576652</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.952534999743843</v>
+        <v>4.244797248334235</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.368216266576652</v>
+        <v>1.662007827898281e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.244797248334235</v>
+        <v>1358244494.266114</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.662007827898281e-16</v>
+        <v>8.86985462460352e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1358244494.266114</v>
+        <v>306.6118753638163</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.86985462460352e-08</v>
+        <v>0.0002003991642042596</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>306.6118753638163</v>
+        <v>9.482096765253281</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002003991642042596</v>
+        <v>1.516612932573485</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.482096765253281</v>
+        <v>0.01801792073022363</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.516612932573485</v>
+        <v>2.988757471568605</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01801792073022363</v>
+        <v>0.9614801980340812</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.988757471568605</v>
+        <v>1.089159332241784</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9614801980340812</v>
+        <v>38</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.089159332241784</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.824055306627862</v>
       </c>
     </row>
@@ -3792,72 +3774,66 @@
         <v>9.18027384221184e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6820535442278154</v>
+        <v>5.383190983544681e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.413869593878617</v>
+        <v>3.971157179002719e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.383190983544681e-07</v>
+        <v>0.04336680486174393</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.971157179002719e-06</v>
+        <v>0.2574338928069722</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04336680486174393</v>
+        <v>0.06807392112201546</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2574338928069722</v>
+        <v>1.920223883737318</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06807392112201546</v>
+        <v>2.417421640156177</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.950727089478859</v>
+        <v>4.145854570712276</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.417421640156177</v>
+        <v>1.742283563989319e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.145854570712276</v>
+        <v>1297184720.251139</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.742283563989319e-16</v>
+        <v>9.287116531405467e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1297184720.251139</v>
+        <v>293.1719991483505</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.287116531405467e-08</v>
+        <v>0.000185625492452899</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>293.1719991483505</v>
+        <v>10.97835337948824</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000185625492452899</v>
+        <v>1.166801469259351</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.97835337948824</v>
+        <v>0.02237237194545125</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.166801469259351</v>
+        <v>2.855561189445966</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02237237194545125</v>
+        <v>0.9617230957834741</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.855561189445966</v>
+        <v>1.104652259331032</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9617230957834741</v>
+        <v>38</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.104652259331032</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.7651949816491079</v>
       </c>
     </row>
@@ -3872,72 +3848,66 @@
         <v>8.572659316531255e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.20076133658925</v>
+        <v>4.496729732000368e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.107048325725835</v>
+        <v>3.974362472684562e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.496729732000368e-07</v>
+        <v>0.02931095936562039</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.974362472684562e-06</v>
+        <v>0.2435810222298225</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02931095936562039</v>
+        <v>0.06013795637676521</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2435810222298225</v>
+        <v>1.92448637884088</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06013795637676521</v>
+        <v>2.514804815302913</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.958230998838645</v>
+        <v>4.660486156320544</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.514804815302913</v>
+        <v>1.895959738453468e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.660486156320544</v>
+        <v>1181786742.004628</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.895959738453468e-16</v>
+        <v>1.021036812303045e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1181786742.004628</v>
+        <v>264.7935107106489</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.021036812303045e-07</v>
+        <v>0.0001870771647586254</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>264.7935107106489</v>
+        <v>12.09024998660727</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001870771647586254</v>
+        <v>1.037403259770624</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.09024998660727</v>
+        <v>0.02734584455872493</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.037403259770624</v>
+        <v>2.595670964948389</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02734584455872493</v>
+        <v>0.9625496355703003</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.595670964948389</v>
+        <v>1.110482583062045</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9625496355703003</v>
+        <v>38</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.110482583062045</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.7262704413607786</v>
       </c>
     </row>
@@ -3952,72 +3922,66 @@
         <v>8.271807773532558e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.452636121976492</v>
+        <v>3.812487465735271e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.149932031088689</v>
+        <v>3.976298459285111e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.812487465735271e-07</v>
+        <v>0.01721839468206599</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.976298459285111e-06</v>
+        <v>0.2299809866618875</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.01721839468206599</v>
+        <v>0.05315331692645336</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2299809866618875</v>
+        <v>1.922998222384861</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05315331692645336</v>
+        <v>2.425292242785131</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.952589150588632</v>
+        <v>4.586831142215985</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.425292242785131</v>
+        <v>2.254275650122614e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.586831142215985</v>
+        <v>954485100.4788287</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.254275650122614e-16</v>
+        <v>1.261023267398349e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>954485100.4788287</v>
+        <v>205.373936184514</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.261023267398349e-07</v>
+        <v>0.0001868247258976258</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>205.373936184514</v>
+        <v>11.67254705857374</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001868247258976258</v>
+        <v>1.062589046258779</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.67254705857374</v>
+        <v>0.02545456154598006</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.062589046258779</v>
+        <v>2.654098521734859</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02545456154598006</v>
+        <v>0.9623852917613667</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.654098521734859</v>
+        <v>1.141224732892791</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9623852917613667</v>
+        <v>38</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.141224732892791</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.7136626439048473</v>
       </c>
     </row>
@@ -4032,72 +3996,66 @@
         <v>8.148550790207935e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.539991359058424</v>
+        <v>3.289628386083558e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.227253578669976</v>
+        <v>3.97730922851326e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.289628386083558e-07</v>
+        <v>0.008028287270356337</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.97730922851326e-06</v>
+        <v>0.2188901170729619</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.008028287270356337</v>
+        <v>0.04795734473166425</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2188901170729619</v>
+        <v>1.921792084638169</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04795734473166425</v>
+        <v>2.304482866581588</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.946145115693346</v>
+        <v>4.383658005977407</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.304482866581588</v>
+        <v>2.468079784806282e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.383658005977407</v>
+        <v>865120925.3662823</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.468079784806282e-16</v>
+        <v>1.389411301523971e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>865120925.3662823</v>
+        <v>184.7195357549219</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.389411301523971e-07</v>
+        <v>0.0001951215911119594</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>184.7195357549219</v>
+        <v>10.66696481591495</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001951215911119594</v>
+        <v>1.225305248845921</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.66696481591495</v>
+        <v>0.02220174212478312</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.225305248845921</v>
+        <v>2.809453788213066</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02220174212478312</v>
+        <v>0.9633625320772937</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.809453788213066</v>
+        <v>1.168667230832978</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9633625320772937</v>
+        <v>38</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.168667230832978</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.7618067668911486</v>
       </c>
     </row>
@@ -4112,72 +4070,66 @@
         <v>8.11333763026538e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.558321764862543</v>
+        <v>2.998570032367968e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.256085268021281</v>
+        <v>3.977686772410847e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.998570032367968e-07</v>
+        <v>0.001753937648303514</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.977686772410847e-06</v>
+        <v>0.2118752718197165</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.001753937648303514</v>
+        <v>0.04488443932001654</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2118752718197165</v>
+        <v>1.90958170303449</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04488443932001654</v>
+        <v>2.320658765163956</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.929543770671162</v>
+        <v>4.227259799290216</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.320658765163956</v>
+        <v>2.654083889613154e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.227259799290216</v>
+        <v>807342347.1772161</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.654083889613154e-16</v>
+        <v>1.48791969634124e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>807342347.1772161</v>
+        <v>172.9936299747641</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.48791969634124e-07</v>
+        <v>0.0002284030650263795</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>172.9936299747641</v>
+        <v>10.15762347781317</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002284030650263795</v>
+        <v>1.490695174512988</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.15762347781317</v>
+        <v>0.02356601492255906</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.490695174512988</v>
+        <v>2.84071163703035</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02356601492255906</v>
+        <v>0.9625128933991045</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.84071163703035</v>
+        <v>1.286232132080058</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9625128933991045</v>
+        <v>41</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.286232132080058</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.8234565421332378</v>
       </c>
     </row>
@@ -4192,72 +4144,66 @@
         <v>8.115344287519277e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.558188680204496</v>
+        <v>2.998570032367968e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1.254996925406687</v>
+        <v>3.977647080334324e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.998570032367968e-07</v>
+        <v>-0.00239062104999305</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.977647080334324e-06</v>
+        <v>0.2080946235066769</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.00239062104999305</v>
+        <v>0.04330510184896075</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2080946235066769</v>
+        <v>1.905031584993965</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04330510184896075</v>
+        <v>2.251849767940536</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.924670895285161</v>
+        <v>3.891822482688607</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.251849767940536</v>
+        <v>3.131312990406858e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.891822482688607</v>
+        <v>682399284.9214722</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.131312990406858e-16</v>
+        <v>1.753870643037276e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>682399284.9214722</v>
+        <v>145.8154712758229</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.753870643037276e-07</v>
+        <v>0.0002274707802285255</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>145.8154712758229</v>
+        <v>10.23669462408492</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002274707802285255</v>
+        <v>1.518656301737941</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.23669462408492</v>
+        <v>0.02383664414066748</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.518656301737941</v>
+        <v>2.899931447433572</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02383664414066748</v>
+        <v>0.9626247931368671</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.899931447433572</v>
+        <v>1.282134490348349</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9626247931368671</v>
+        <v>41</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.282134490348349</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.7831743988385296</v>
       </c>
     </row>
@@ -4272,72 +4218,66 @@
         <v>8.131273757163967e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.557380263761379</v>
+        <v>2.998570032367968e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.24763203311854</v>
+        <v>3.977335995016935e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.998570032367968e-07</v>
+        <v>-0.005027644870625264</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.977335995016935e-06</v>
+        <v>0.2061978373877802</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.005027644870625264</v>
+        <v>0.04254152245644562</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2061978373877802</v>
+        <v>1.910970485632257</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04254152245644562</v>
+        <v>2.422642747433349</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.926912491315624</v>
+        <v>3.741258986186147</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.422642747433349</v>
+        <v>3.388417990730535e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.741258986186147</v>
+        <v>652404016.8972508</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.388417990730535e-16</v>
+        <v>1.837847174790626e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>652404016.8972508</v>
+        <v>144.2215742094465</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.837847174790626e-07</v>
+        <v>0.0001843373580655454</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>144.2215742094465</v>
+        <v>10.51842588763991</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001843373580655454</v>
+        <v>1.292908269257531</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.51842588763991</v>
+        <v>0.02039458448011628</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.292908269257531</v>
+        <v>2.935399770236514</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02039458448011628</v>
+        <v>0.9636722193911533</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.935399770236514</v>
+        <v>1.276045469303065</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9636722193911533</v>
+        <v>41</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.276045469303065</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.6184513095136432</v>
       </c>
     </row>
@@ -4714,7 +4654,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.211252154918843</v>
+        <v>1.211124306243027</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.040391542257745</v>
@@ -4803,7 +4743,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.214611130576687</v>
+        <v>1.214246675621192</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.067844450379607</v>
@@ -4892,7 +4832,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.203237146458339</v>
+        <v>1.202462916390517</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.999651111868782</v>
@@ -4981,7 +4921,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.21547980478058</v>
+        <v>1.21430747513433</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.954886031738963</v>
@@ -5070,7 +5010,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.232712594733782</v>
+        <v>1.232840706592709</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.01282046034911</v>
@@ -5159,7 +5099,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.263647822176358</v>
+        <v>1.263682896760917</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.74346066020549</v>
@@ -5248,7 +5188,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.315935270563887</v>
+        <v>1.31439082772659</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.829467235066049</v>
@@ -5337,7 +5277,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.324309863601996</v>
+        <v>1.324191109978607</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.045941180096447</v>
@@ -5426,7 +5366,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.325032157163409</v>
+        <v>1.323890417431699</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.041129644129735</v>
@@ -5515,7 +5455,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.323604294890657</v>
+        <v>1.32535763826064</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.963663301577397</v>
@@ -5604,7 +5544,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.284545617534516</v>
+        <v>1.28370906689646</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.015529039554028</v>
@@ -5693,7 +5633,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.321641421105718</v>
+        <v>1.321987707804252</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.965232532759509</v>
@@ -5782,7 +5722,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.309357709517367</v>
+        <v>1.313856334834551</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.984458134265244</v>
@@ -5871,7 +5811,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.28592942375321</v>
+        <v>1.291330946919927</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.016642542226137</v>
@@ -5960,7 +5900,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.261835689747061</v>
+        <v>1.26147914809578</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.837207190287045</v>
@@ -6049,7 +5989,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.275084788059362</v>
+        <v>1.2774353988336</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.991880520642404</v>
@@ -6138,7 +6078,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.273024816986215</v>
+        <v>1.273552130949111</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.949837993115549</v>
@@ -6227,7 +6167,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.28457970847942</v>
+        <v>1.281277244521268</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.890098292756484</v>
@@ -6316,7 +6256,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.280780678959873</v>
+        <v>1.278700151387087</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.981723343789101</v>
@@ -6405,7 +6345,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.284750416083854</v>
+        <v>1.281050273521783</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.987801820113674</v>
@@ -6494,7 +6434,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.291437357774385</v>
+        <v>1.284278643998356</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.837599607805436</v>
@@ -6583,7 +6523,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.308283974399055</v>
+        <v>1.303379647250337</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.951034241113278</v>
@@ -6672,7 +6612,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.303295532053448</v>
+        <v>1.299387869799023</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.946012747067335</v>
@@ -6761,7 +6701,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.266829388343367</v>
+        <v>1.260272250253614</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.980440855068745</v>
@@ -6850,7 +6790,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.236780318801052</v>
+        <v>1.231651927804279</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.039008972059789</v>
@@ -6939,7 +6879,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.252353021253068</v>
+        <v>1.249011601586349</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.01955769126349</v>
@@ -7028,7 +6968,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.246853856179171</v>
+        <v>1.242860172311179</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.012629909071328</v>
@@ -7117,7 +7057,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.23159146382703</v>
+        <v>1.222785905670505</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.957698558751568</v>
@@ -7206,7 +7146,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.2447805787179</v>
+        <v>1.23481869231305</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.918095480941218</v>
@@ -7295,7 +7235,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.24823285240822</v>
+        <v>1.240675290215129</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.977051484675992</v>
@@ -7384,7 +7324,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.249371466904017</v>
+        <v>1.242792128590556</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.029597406748755</v>
@@ -7473,7 +7413,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.248736209585346</v>
+        <v>1.241266132388893</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.044346650773717</v>
@@ -7562,7 +7502,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.240364537672763</v>
+        <v>1.236116684529264</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.996711325519819</v>
@@ -7651,7 +7591,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.241290403197126</v>
+        <v>1.235469990156069</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.016356560071502</v>
@@ -7740,7 +7680,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.226307848595688</v>
+        <v>1.219286728477033</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.042538613074958</v>
@@ -7829,7 +7769,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.222651658872618</v>
+        <v>1.215958854904156</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.045585018990633</v>
@@ -7918,7 +7858,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.225043439969234</v>
+        <v>1.211270914550894</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.077811489537272</v>
@@ -8007,7 +7947,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.221865318770897</v>
+        <v>1.207938866482553</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.987630429347353</v>
@@ -8096,7 +8036,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.252127895822536</v>
+        <v>1.237503630852214</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.221930351215249</v>
@@ -8185,7 +8125,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.268332704894325</v>
+        <v>1.25962953429773</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.06218127004962</v>
@@ -8274,7 +8214,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.277274859117565</v>
+        <v>1.266773956653551</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.06657358404168</v>
@@ -8363,7 +8303,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.298842331446166</v>
+        <v>1.285621139897704</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.960256511775228</v>
@@ -8452,7 +8392,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.314032514185711</v>
+        <v>1.304636169184502</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.067393089404486</v>
@@ -8541,7 +8481,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.292816316252899</v>
+        <v>1.284645747876913</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.947572620154778</v>
@@ -8630,7 +8570,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.303241865534922</v>
+        <v>1.300831995427455</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.052529286881148</v>
@@ -8719,7 +8659,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.304163215434371</v>
+        <v>1.301392454287543</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.143055841503213</v>
@@ -8808,7 +8748,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.277635666729239</v>
+        <v>1.275207960490144</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.932257357740831</v>
@@ -8897,7 +8837,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.2992770667162</v>
+        <v>1.300215655647521</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.060883838945292</v>
@@ -8986,7 +8926,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.290855692309175</v>
+        <v>1.289666437092646</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.943082028268734</v>
@@ -9075,7 +9015,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.298089924664642</v>
+        <v>1.299951414408027</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.065252929555783</v>
@@ -9164,7 +9104,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.279116605990315</v>
+        <v>1.281902671255979</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.109312316720649</v>
@@ -9253,7 +9193,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.284054781008092</v>
+        <v>1.283649642595929</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.991045957752842</v>
@@ -9342,7 +9282,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.258380655725311</v>
+        <v>1.265405092373308</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.072032515808139</v>
@@ -9628,7 +9568,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.517014942478807</v>
+        <v>1.497139213972958</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.418158566477929</v>
@@ -9717,7 +9657,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.525397985091775</v>
+        <v>1.503042922564235</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.498770157880418</v>
@@ -9806,7 +9746,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.533252238362642</v>
+        <v>1.506411670150043</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.370933806147263</v>
@@ -9895,7 +9835,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.538690253125335</v>
+        <v>1.50453522007115</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.199089483538053</v>
@@ -9984,7 +9924,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.556937086881548</v>
+        <v>1.526757334597897</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.39834693585657</v>
@@ -10073,7 +10013,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.570648021837415</v>
+        <v>1.535449312360183</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.073003078968126</v>
@@ -10162,7 +10102,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.625831913379786</v>
+        <v>1.58780578434924</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.514631397764895</v>
@@ -10251,7 +10191,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.638739867834186</v>
+        <v>1.591233465947254</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.925475168454422</v>
@@ -10340,7 +10280,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.640809889356884</v>
+        <v>1.594825118918206</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.159101430406693</v>
@@ -10429,7 +10369,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.638480667639677</v>
+        <v>1.592126718044389</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.774416526901602</v>
@@ -10518,7 +10458,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.618146175540944</v>
+        <v>1.575699487296709</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.977830306042059</v>
@@ -10607,7 +10547,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.596700245110483</v>
+        <v>1.563488646034154</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.794857305603774</v>
@@ -10696,7 +10636,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.564046017307861</v>
+        <v>1.53914742010868</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.430931499143437</v>
@@ -10785,7 +10725,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.542982674541617</v>
+        <v>1.52662834981888</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.436320466480582</v>
@@ -10874,7 +10814,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.498659845428052</v>
+        <v>1.49156195540465</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.250926516189932</v>
@@ -10963,7 +10903,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.493399157579064</v>
+        <v>1.4908483426807</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.218947900816905</v>
@@ -11052,7 +10992,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.487435879928485</v>
+        <v>1.487819050162952</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.249168194852179</v>
@@ -11141,7 +11081,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.47732775988632</v>
+        <v>1.484098975693221</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.261204027447852</v>
@@ -11230,7 +11170,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.481123569397632</v>
+        <v>1.490056642106296</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.2902520701971</v>
@@ -11319,7 +11259,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.484751717258</v>
+        <v>1.494272551755963</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.293124683979847</v>
@@ -11408,7 +11348,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.487694300243265</v>
+        <v>1.492542063519671</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.225778440952749</v>
@@ -11497,7 +11437,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.487658807969597</v>
+        <v>1.490816336905694</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.306149961709993</v>
@@ -11586,7 +11526,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.48370847033696</v>
+        <v>1.488179439514557</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.307388205226899</v>
@@ -11675,7 +11615,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.482953986061048</v>
+        <v>1.484896238635042</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.257939712583954</v>
@@ -11764,7 +11704,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.486134529404504</v>
+        <v>1.489997786072601</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.31928048604485</v>
@@ -11853,7 +11793,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.493275371135708</v>
+        <v>1.492596284388108</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.218066162963082</v>
@@ -11942,7 +11882,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.488835671990208</v>
+        <v>1.487163474924012</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.234569370551902</v>
@@ -12031,7 +11971,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.506955754140021</v>
+        <v>1.502203724395871</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.21515140460787</v>
@@ -12120,7 +12060,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.510480426199554</v>
+        <v>1.504607355701935</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.282889012289141</v>
@@ -12209,7 +12149,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.55016215394146</v>
+        <v>1.539258335878293</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.68708294863821</v>
@@ -12298,7 +12238,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.558770383955677</v>
+        <v>1.543952296559099</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.20753176793284</v>
@@ -12387,7 +12327,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.557061119463824</v>
+        <v>1.542407681989853</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.256698902202101</v>
@@ -12476,7 +12416,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.570164697027536</v>
+        <v>1.549831352546479</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.362520212962096</v>
@@ -12565,7 +12505,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.560749110876291</v>
+        <v>1.540133783676975</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.646139074744293</v>
@@ -12654,7 +12594,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.52285237955927</v>
+        <v>1.500432754392732</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.371390241010005</v>
@@ -12743,7 +12683,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.521637213828364</v>
+        <v>1.500380694091738</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.422861942467355</v>
@@ -12832,7 +12772,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.518081917406236</v>
+        <v>1.502561519948309</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.399373708327567</v>
@@ -12921,7 +12861,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.518360640525357</v>
+        <v>1.500336782084798</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.489227099537677</v>
@@ -13010,7 +12950,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.529871939001631</v>
+        <v>1.510608882342717</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.456759011521561</v>
@@ -13099,7 +13039,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.521796316634662</v>
+        <v>1.506674230988954</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.412719192003074</v>
@@ -13188,7 +13128,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.523984678496329</v>
+        <v>1.503585375792497</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.377340093228417</v>
@@ -13277,7 +13217,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.536901769185111</v>
+        <v>1.516625676992248</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.492245593136379</v>
@@ -13366,7 +13306,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.541618964585888</v>
+        <v>1.519911222306196</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.498159638445449</v>
@@ -13455,7 +13395,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.553551544636421</v>
+        <v>1.529682138049211</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.437136899848014</v>
@@ -13544,7 +13484,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.520322652810345</v>
+        <v>1.501919981897028</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.354174440046543</v>
@@ -13633,7 +13573,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.521302586423711</v>
+        <v>1.503358509278136</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.452539680138667</v>
@@ -13722,7 +13662,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.502924717707926</v>
+        <v>1.484006253544543</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.382851348424956</v>
@@ -13811,7 +13751,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.502742173478316</v>
+        <v>1.486731620804698</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.306696730573464</v>
@@ -13900,7 +13840,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.480183491881724</v>
+        <v>1.460431666304113</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.999122206791859</v>
@@ -13989,7 +13929,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.485860653355406</v>
+        <v>1.469689062973386</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.220585099402107</v>
@@ -14078,7 +14018,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.496188516702187</v>
+        <v>1.475519148308783</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.364440465419126</v>
@@ -14167,7 +14107,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.47071593539369</v>
+        <v>1.44983346199917</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.273661771389985</v>
@@ -14256,7 +14196,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.479753178179693</v>
+        <v>1.459103417124166</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.317971946978695</v>
@@ -14542,7 +14482,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.506031106494616</v>
+        <v>1.467316010073837</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.879807539692746</v>
@@ -14631,7 +14571,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.504398375722363</v>
+        <v>1.464540738295237</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.97424670766176</v>
@@ -14720,7 +14660,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.501284103630567</v>
+        <v>1.463374381976625</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.836359239277226</v>
@@ -14809,7 +14749,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.502932866393951</v>
+        <v>1.462061943350669</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.714498077346718</v>
@@ -14898,7 +14838,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.50370895530389</v>
+        <v>1.46349773139667</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.902234599415564</v>
@@ -14987,7 +14927,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.51710878276587</v>
+        <v>1.47987637846185</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.416372163868862</v>
@@ -15076,7 +15016,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.549304717285924</v>
+        <v>1.5115009461904</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.500929235329982</v>
@@ -15165,7 +15105,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.555154517153489</v>
+        <v>1.516964586426704</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.020320807298412</v>
@@ -15254,7 +15194,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.559539446662598</v>
+        <v>1.519502417613077</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.942492371586668</v>
@@ -15343,7 +15283,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.563157247669252</v>
+        <v>1.52566248924295</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.043939834269877</v>
@@ -15432,7 +15372,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.548809691482341</v>
+        <v>1.51399121739735</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.881258785974943</v>
@@ -15521,7 +15461,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.552880208356756</v>
+        <v>1.515799595339548</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.964859824637859</v>
@@ -15610,7 +15550,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.540832908300527</v>
+        <v>1.506174923650736</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.643314948023485</v>
@@ -15699,7 +15639,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.530264294183175</v>
+        <v>1.499163760735651</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.715510068424405</v>
@@ -15788,7 +15728,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.50663281621938</v>
+        <v>1.486387186357503</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.438511848952093</v>
@@ -15877,7 +15817,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.510413695849408</v>
+        <v>1.493853812930313</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.606531838416282</v>
@@ -15966,7 +15906,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.50874646504012</v>
+        <v>1.49211161789007</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.635159590998088</v>
@@ -16055,7 +15995,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.510398464975599</v>
+        <v>1.488376432312092</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.527216176330578</v>
@@ -16144,7 +16084,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.50713191997146</v>
+        <v>1.486019422162894</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.629673237767557</v>
@@ -16233,7 +16173,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.513253933415899</v>
+        <v>1.490171510460616</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.646821610777072</v>
@@ -16322,7 +16262,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.50415057120382</v>
+        <v>1.481938450057437</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.597217872993028</v>
@@ -16411,7 +16351,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.503761042966015</v>
+        <v>1.47353527001275</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.668692697651335</v>
@@ -16500,7 +16440,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.506327408505373</v>
+        <v>1.478396246236057</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.588061908649634</v>
@@ -16589,7 +16529,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.493952168366564</v>
+        <v>1.468004591565087</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.704264244263855</v>
@@ -16678,7 +16618,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.491221745979741</v>
+        <v>1.469827358768551</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.64335808351133</v>
@@ -16767,7 +16707,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.495361053559901</v>
+        <v>1.469533006169468</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.598562909179573</v>
@@ -16856,7 +16796,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.492983492602492</v>
+        <v>1.464682838227457</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.602111097110166</v>
@@ -16945,7 +16885,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.492130858304858</v>
+        <v>1.465312781207358</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.533480802516865</v>
@@ -17034,7 +16974,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.499812625334962</v>
+        <v>1.472044749576587</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.660889553256384</v>
@@ -17123,7 +17063,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.506164767784054</v>
+        <v>1.46851502811204</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.392689999048397</v>
@@ -17212,7 +17152,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.515808918987899</v>
+        <v>1.472163382779213</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.811204499084981</v>
@@ -17301,7 +17241,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.522696281218117</v>
+        <v>1.478271767430272</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.930944686924501</v>
@@ -17390,7 +17330,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.527592861890905</v>
+        <v>1.482101420919222</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.902115428877871</v>
@@ -17479,7 +17419,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.530463212999191</v>
+        <v>1.481657817674051</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.998524474724094</v>
@@ -17568,7 +17508,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.5141978507566</v>
+        <v>1.464689872545278</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.703224011131567</v>
@@ -17657,7 +17597,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.514359237514853</v>
+        <v>1.465989963434791</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.816787282787</v>
@@ -17746,7 +17686,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.514544394900325</v>
+        <v>1.467675299628951</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.823304973573035</v>
@@ -17835,7 +17775,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.506652167932526</v>
+        <v>1.461414843128532</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.945738934894376</v>
@@ -17924,7 +17864,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.51713610001465</v>
+        <v>1.468313265683093</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.277579652722818</v>
@@ -18013,7 +17953,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.523534708099668</v>
+        <v>1.466211929220769</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.888726524980248</v>
@@ -18102,7 +18042,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.532869983375726</v>
+        <v>1.476697741169275</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.076963272688381</v>
@@ -18191,7 +18131,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.549036321965931</v>
+        <v>1.493520659146675</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.970262558962883</v>
@@ -18280,7 +18220,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.558270086681971</v>
+        <v>1.504002569641589</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.342660557420653</v>
@@ -18369,7 +18309,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.551174729979113</v>
+        <v>1.49379521720235</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.718429345429331</v>
@@ -18458,7 +18398,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.556351617769462</v>
+        <v>1.50452235185633</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.772446195935637</v>
@@ -18547,7 +18487,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.563109580836413</v>
+        <v>1.511041471364553</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.105843564943458</v>
@@ -18636,7 +18576,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.539218827890098</v>
+        <v>1.494511077518847</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.628245130591599</v>
@@ -18725,7 +18665,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.545752471087746</v>
+        <v>1.506210222598937</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.810652383683873</v>
@@ -18814,7 +18754,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.530052194066576</v>
+        <v>1.496556392189636</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.713547530237031</v>
@@ -18903,7 +18843,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.546939357880781</v>
+        <v>1.514421940856298</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.848140675821151</v>
@@ -18992,7 +18932,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.540919644801929</v>
+        <v>1.511478421567893</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.105324014972393</v>
@@ -19081,7 +19021,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.542407368630102</v>
+        <v>1.515635353627607</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.06058558811782</v>
@@ -19170,7 +19110,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.540454779933554</v>
+        <v>1.516055746039926</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.831833742561906</v>
@@ -19456,7 +19396,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.57202137120407</v>
+        <v>1.519104586872366</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.803439268033119</v>
@@ -19545,7 +19485,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.568280833947356</v>
+        <v>1.512899511782404</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.817041249065559</v>
@@ -19634,7 +19574,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.572023847098218</v>
+        <v>1.523866152696637</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.782888021834089</v>
@@ -19723,7 +19663,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.566523893362279</v>
+        <v>1.520591290338118</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.938492923113046</v>
@@ -19812,7 +19752,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.568987178058778</v>
+        <v>1.526006431623259</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.973654102798639</v>
@@ -19901,7 +19841,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.56767697154342</v>
+        <v>1.530657105474797</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.735298080279869</v>
@@ -19990,7 +19930,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.597439278599911</v>
+        <v>1.553006918562159</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.970594836431295</v>
@@ -20079,7 +20019,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.586450059194377</v>
+        <v>1.541718530960574</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.927796404483191</v>
@@ -20168,7 +20108,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.593357470889939</v>
+        <v>1.549236917178141</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.955445492871301</v>
@@ -20257,7 +20197,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.596940991220767</v>
+        <v>1.554358036989223</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.261755226456189</v>
@@ -20346,7 +20286,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.601357794095992</v>
+        <v>1.562452165580006</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.600950712394576</v>
@@ -20435,7 +20375,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.604191783279445</v>
+        <v>1.568639619350922</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.486818542784521</v>
@@ -20524,7 +20464,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.602525558679005</v>
+        <v>1.571725979657769</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.401487026462357</v>
@@ -20613,7 +20553,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.600331225276508</v>
+        <v>1.570291503548184</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.742243281375888</v>
@@ -20702,7 +20642,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.607631924430508</v>
+        <v>1.572419673666777</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.484146960855588</v>
@@ -20791,7 +20731,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.603588729710042</v>
+        <v>1.570042357544091</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.407274927956754</v>
@@ -20880,7 +20820,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.605513159879386</v>
+        <v>1.573173618120541</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.30813803341114</v>
@@ -20969,7 +20909,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.606068480096268</v>
+        <v>1.564426610752615</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.612845301588251</v>
@@ -21058,7 +20998,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.614589234990484</v>
+        <v>1.56625343878948</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.343079673800726</v>
@@ -21147,7 +21087,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613608169739432</v>
+        <v>1.561953391649895</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.713087918922539</v>
@@ -21236,7 +21176,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.608585693936257</v>
+        <v>1.557607562950797</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.256783609896462</v>
@@ -21325,7 +21265,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.597314089005156</v>
+        <v>1.545642283629878</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.350637112891628</v>
@@ -21414,7 +21354,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.604538887026038</v>
+        <v>1.552760112217569</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.45449756416353</v>
@@ -21503,7 +21443,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.601131418468508</v>
+        <v>1.551599671258303</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.937327602655226</v>
@@ -21592,7 +21532,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.619166304992353</v>
+        <v>1.5701676854623</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.432809874341649</v>
@@ -21681,7 +21621,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.618390366928901</v>
+        <v>1.565943748237934</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.309976726059424</v>
@@ -21770,7 +21710,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.616249453568027</v>
+        <v>1.561256211755455</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.448784902035132</v>
@@ -21859,7 +21799,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.600717944590797</v>
+        <v>1.550041413235673</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.347975117620852</v>
@@ -21948,7 +21888,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.59522054936908</v>
+        <v>1.548753234475545</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.112032865387926</v>
@@ -22037,7 +21977,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.580951328624593</v>
+        <v>1.539083956098598</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.789784968793137</v>
@@ -22126,7 +22066,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.598648994947425</v>
+        <v>1.552907197274514</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.367208749011297</v>
@@ -22215,7 +22155,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.603381065489061</v>
+        <v>1.559626956269291</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.374754413315811</v>
@@ -22304,7 +22244,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.603045139427267</v>
+        <v>1.565348602135102</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.125145491497036</v>
@@ -22393,7 +22333,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.605958353378996</v>
+        <v>1.571755318847983</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.637712821290537</v>
@@ -22482,7 +22422,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.592591902220109</v>
+        <v>1.557165962104809</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.568667827232091</v>
@@ -22571,7 +22511,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.594461509424912</v>
+        <v>1.558928527006423</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.363593655570513</v>
@@ -22660,7 +22600,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.599240607078233</v>
+        <v>1.56905920784758</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.424852807778732</v>
@@ -22749,7 +22689,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.59670277487279</v>
+        <v>1.571219828516916</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.187449465184352</v>
@@ -22838,7 +22778,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.593620380798243</v>
+        <v>1.566495712613442</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.600081634864552</v>
@@ -22927,7 +22867,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.58462947719699</v>
+        <v>1.549183430669945</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.270607666867705</v>
@@ -23016,7 +22956,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.586873130285123</v>
+        <v>1.545011440370363</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.472523953879209</v>
@@ -23105,7 +23045,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.593250983724521</v>
+        <v>1.5501420029121</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.241481513491729</v>
@@ -23194,7 +23134,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.606997216555741</v>
+        <v>1.561283374646004</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.022494131938649</v>
@@ -23283,7 +23223,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.613252502905105</v>
+        <v>1.559779010183838</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.1341663958604</v>
@@ -23372,7 +23312,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.625680632956814</v>
+        <v>1.566430910420731</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.562888114122708</v>
@@ -23461,7 +23401,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.629512573306043</v>
+        <v>1.56571424145996</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.352123883356155</v>
@@ -23550,7 +23490,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.626512950801904</v>
+        <v>1.565937695617687</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.925593672175543</v>
@@ -23639,7 +23579,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.621158448725684</v>
+        <v>1.56034653072414</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.213477092060401</v>
@@ -23728,7 +23668,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.609782788928568</v>
+        <v>1.553290987974361</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.733530038742675</v>
@@ -23817,7 +23757,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.624606773942823</v>
+        <v>1.571622365335047</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.118118020508061</v>
@@ -23906,7 +23846,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.620519852552494</v>
+        <v>1.571177510021967</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.193216041407884</v>
@@ -23995,7 +23935,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.615186310376583</v>
+        <v>1.564917564476637</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.123722727014392</v>
@@ -24084,7 +24024,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.621393153403762</v>
+        <v>1.564957348166816</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.021480390046839</v>
@@ -24370,7 +24310,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.521116898020658</v>
+        <v>1.500605621013909</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.475950529455506</v>
@@ -24459,7 +24399,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.520321471721744</v>
+        <v>1.496545994466824</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.419843041233889</v>
@@ -24548,7 +24488,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.523073517142887</v>
+        <v>1.503849096061186</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.508730768468183</v>
@@ -24637,7 +24577,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.527353654854651</v>
+        <v>1.504652509551303</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.323173297392007</v>
@@ -24726,7 +24666,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.547843841278709</v>
+        <v>1.526104438233092</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.432251288340299</v>
@@ -24815,7 +24755,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.555674168814261</v>
+        <v>1.526326515849118</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.285222334991011</v>
@@ -24904,7 +24844,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.602319137835279</v>
+        <v>1.568189780891461</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.475993880245853</v>
@@ -24993,7 +24933,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.607305271793391</v>
+        <v>1.56748339899976</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.084312831431995</v>
@@ -25082,7 +25022,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.612236312656666</v>
+        <v>1.576596165276166</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.435127683244933</v>
@@ -25171,7 +25111,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.589166484778657</v>
+        <v>1.556171758058846</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.199514971820852</v>
@@ -25260,7 +25200,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.595798513861264</v>
+        <v>1.562470573886089</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.866883268277124</v>
@@ -25349,7 +25289,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.588703819114345</v>
+        <v>1.557796450213706</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.092989473873543</v>
@@ -25438,7 +25378,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.532666835802108</v>
+        <v>1.50997895660076</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.122691590108611</v>
@@ -25527,7 +25467,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.528005948738909</v>
+        <v>1.502183673230214</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.133349910996145</v>
@@ -25616,7 +25556,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.477623920767665</v>
+        <v>1.459085953410181</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.211994721927078</v>
@@ -25705,7 +25645,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.482699899028824</v>
+        <v>1.462293431536686</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.128185621282372</v>
@@ -25794,7 +25734,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.484940150005318</v>
+        <v>1.46575912979128</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.154456447768812</v>
@@ -25883,7 +25823,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.485073977171808</v>
+        <v>1.467263112889011</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.182688385217957</v>
@@ -25972,7 +25912,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.488632678106509</v>
+        <v>1.471753043736743</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.21505590493101</v>
@@ -26061,7 +26001,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.487359379551351</v>
+        <v>1.472697625335111</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.297321677287372</v>
@@ -26150,7 +26090,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.490529028596838</v>
+        <v>1.478568822026325</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.132424419301655</v>
@@ -26239,7 +26179,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.488749988990689</v>
+        <v>1.479822795085805</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.207991003485212</v>
@@ -26328,7 +26268,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.489455850548946</v>
+        <v>1.480228131138616</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.254009036797197</v>
@@ -26417,7 +26357,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.482074551615331</v>
+        <v>1.474787932882621</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.134334432536119</v>
@@ -26506,7 +26446,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.502339836027088</v>
+        <v>1.493662025801588</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.180741879289816</v>
@@ -26595,7 +26535,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.50244278540768</v>
+        <v>1.488951817711131</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.210648927052917</v>
@@ -26684,7 +26624,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.501584797906759</v>
+        <v>1.488982009833509</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.280425304901491</v>
@@ -26773,7 +26713,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.538905056314864</v>
+        <v>1.51977143589411</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.306557477383643</v>
@@ -26862,7 +26802,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.528154632018626</v>
+        <v>1.507499239642319</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.249728613648582</v>
@@ -26951,7 +26891,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.577598741609713</v>
+        <v>1.550440401607716</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.730312034489935</v>
@@ -27040,7 +26980,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.568803300091513</v>
+        <v>1.548012244312295</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.004533153172319</v>
@@ -27129,7 +27069,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.565950805057696</v>
+        <v>1.549405620544144</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.101981815971606</v>
@@ -27218,7 +27158,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.566560292345281</v>
+        <v>1.544408329691612</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.100547640650685</v>
@@ -27307,7 +27247,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.554806441618804</v>
+        <v>1.535473835122391</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.059505866070906</v>
@@ -27396,7 +27336,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.524060742371236</v>
+        <v>1.50650407404947</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.538483884357839</v>
@@ -27485,7 +27425,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.524025308018493</v>
+        <v>1.508047074114979</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.647002601182041</v>
@@ -27574,7 +27514,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.50052341026035</v>
+        <v>1.490606143610893</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.638941427843099</v>
@@ -27663,7 +27603,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.505457713356482</v>
+        <v>1.497301085529206</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.324347954181269</v>
@@ -27752,7 +27692,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.506479957616017</v>
+        <v>1.49410726464578</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.512679270061573</v>
@@ -27841,7 +27781,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.502609068155387</v>
+        <v>1.491398115616487</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.620221402083844</v>
@@ -27930,7 +27870,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.505469775065767</v>
+        <v>1.491978204550843</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.457007203646003</v>
@@ -28019,7 +27959,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.51954456679693</v>
+        <v>1.505419885126969</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.519133353112273</v>
@@ -28108,7 +28048,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.529735197061337</v>
+        <v>1.517930266193973</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.457144793114398</v>
@@ -28197,7 +28137,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.545086905363454</v>
+        <v>1.532772035263549</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.731079143933643</v>
@@ -28286,7 +28226,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.549773636050108</v>
+        <v>1.536602293135396</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.607703016065359</v>
@@ -28375,7 +28315,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.556939945822302</v>
+        <v>1.541327078159915</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.600047326322229</v>
@@ -28464,7 +28404,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.541931432935881</v>
+        <v>1.524105452965986</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.540315397117793</v>
@@ -28553,7 +28493,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.547230697906168</v>
+        <v>1.528239796642979</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.507507759971923</v>
@@ -28642,7 +28582,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.523089297443701</v>
+        <v>1.497949874659802</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.328762915806104</v>
@@ -28731,7 +28671,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.536950824813593</v>
+        <v>1.519813464824881</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.773831110733965</v>
@@ -28820,7 +28760,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.537264188683855</v>
+        <v>1.517922667155598</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.838926304805842</v>
@@ -28909,7 +28849,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.528093415025457</v>
+        <v>1.505793678045737</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.389689715681375</v>
@@ -28998,7 +28938,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.527322059726829</v>
+        <v>1.506463221446138</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.339392961620359</v>
@@ -29284,7 +29224,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.22593402567548</v>
+        <v>1.221213899786953</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.966470149793915</v>
@@ -29373,7 +29313,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.225218232494332</v>
+        <v>1.21930443950795</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.964454040254007</v>
@@ -29462,7 +29402,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.213460035103609</v>
+        <v>1.209277025432974</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.925006688036004</v>
@@ -29551,7 +29491,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.229299350875379</v>
+        <v>1.223602622771518</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.961418008023285</v>
@@ -29640,7 +29580,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.251077824647777</v>
+        <v>1.244714348691965</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.996316999595216</v>
@@ -29729,7 +29669,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.279738643044753</v>
+        <v>1.274923381100642</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.755902200412754</v>
@@ -29818,7 +29758,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.329807628129314</v>
+        <v>1.31824294175453</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.824609353057894</v>
@@ -29907,7 +29847,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.334602596296618</v>
+        <v>1.323709021054555</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.117406021571734</v>
@@ -29996,7 +29936,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.334784506838004</v>
+        <v>1.324084899471849</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.080483834149351</v>
@@ -30085,7 +30025,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.338372922951636</v>
+        <v>1.326698392857883</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.074500953621057</v>
@@ -30174,7 +30114,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.312270619381033</v>
+        <v>1.302404604431083</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.186433930974656</v>
@@ -30263,7 +30203,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.351809306367777</v>
+        <v>1.338590110568454</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.167809893512675</v>
@@ -30352,7 +30292,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.319869584547764</v>
+        <v>1.310191351421357</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.076748805150886</v>
@@ -30441,7 +30381,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.315957517218173</v>
+        <v>1.305301885580275</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.123397750199408</v>
@@ -30530,7 +30470,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.287467178566511</v>
+        <v>1.273734921693482</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.897060075254763</v>
@@ -30619,7 +30559,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.30796033065978</v>
+        <v>1.300555559685612</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.125839721351782</v>
@@ -30708,7 +30648,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.307898279419499</v>
+        <v>1.300864799366493</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.090641243785066</v>
@@ -30797,7 +30737,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.327507298524546</v>
+        <v>1.313813018566246</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.007237455407378</v>
@@ -30886,7 +30826,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.319683461956562</v>
+        <v>1.30813253533917</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.10044918163998</v>
@@ -30975,7 +30915,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.317539082446628</v>
+        <v>1.306789432177696</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.109725254055975</v>
@@ -31064,7 +31004,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.320781400548069</v>
+        <v>1.306834960806515</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.954307389187585</v>
@@ -31153,7 +31093,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.335645223021823</v>
+        <v>1.323393375351555</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.096348991328298</v>
@@ -31242,7 +31182,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.33503670644985</v>
+        <v>1.320021278677793</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.089882511871874</v>
@@ -31331,7 +31271,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.292147095846719</v>
+        <v>1.279327316480576</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.158497979006783</v>
@@ -31420,7 +31360,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.258483899856041</v>
+        <v>1.251488728258631</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.160660320337448</v>
@@ -31509,7 +31449,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.273771142737855</v>
+        <v>1.269903289098877</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.151535154623241</v>
@@ -31598,7 +31538,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.275605839361005</v>
+        <v>1.274708262479269</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.133202421595428</v>
@@ -31687,7 +31627,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.280017016534843</v>
+        <v>1.276547598366192</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.171210488800528</v>
@@ -31776,7 +31716,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.275660862191292</v>
+        <v>1.272713404058637</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.029279485708621</v>
@@ -31865,7 +31805,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.277011866709664</v>
+        <v>1.277073257726591</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.056452992813293</v>
@@ -31954,7 +31894,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.275015102419212</v>
+        <v>1.274964716042564</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.078776220052666</v>
@@ -32043,7 +31983,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.281007172342938</v>
+        <v>1.277699417212138</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.052046692337659</v>
@@ -32132,7 +32072,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.266904354607221</v>
+        <v>1.267269895663504</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.092366919762342</v>
@@ -32221,7 +32161,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.274458681666521</v>
+        <v>1.276211644829547</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.10335388758072</v>
@@ -32310,7 +32250,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.263345255039774</v>
+        <v>1.263684952255555</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.128067697053208</v>
@@ -32399,7 +32339,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.263873218607221</v>
+        <v>1.264410280398683</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.112175552942566</v>
@@ -32488,7 +32428,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.266885316623623</v>
+        <v>1.26159432330765</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.19042428388064</v>
@@ -32577,7 +32517,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.267067134347575</v>
+        <v>1.263834285454898</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.029294764242701</v>
@@ -32666,7 +32606,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.305598784059683</v>
+        <v>1.297064710723079</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.238870329023447</v>
@@ -32755,7 +32695,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.325575010058616</v>
+        <v>1.323370830014555</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.083648745599888</v>
@@ -32844,7 +32784,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.33035673787951</v>
+        <v>1.322868168426083</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.186398589342012</v>
@@ -32933,7 +32873,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.346988682139924</v>
+        <v>1.333872201148792</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.000968858894046</v>
@@ -33022,7 +32962,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.369661801112837</v>
+        <v>1.35842024377097</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.141627024656154</v>
@@ -33111,7 +33051,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.351220356306561</v>
+        <v>1.340638400300774</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.003129229259302</v>
@@ -33200,7 +33140,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.350828304747742</v>
+        <v>1.343706349427455</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.10844948369069</v>
@@ -33289,7 +33229,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.352733560856265</v>
+        <v>1.34275370356377</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.213990370981366</v>
@@ -33378,7 +33318,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.310747546420304</v>
+        <v>1.304107246775039</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.961562978052842</v>
@@ -33467,7 +33407,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.333978857002932</v>
+        <v>1.329082389313462</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.121465558987687</v>
@@ -33556,7 +33496,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.319286454642913</v>
+        <v>1.315437763056449</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.080087710252071</v>
@@ -33645,7 +33585,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.328748007799003</v>
+        <v>1.326927631142371</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.110180765878882</v>
@@ -33734,7 +33674,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.303082399558127</v>
+        <v>1.302199195567066</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.184697961763905</v>
@@ -33823,7 +33763,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.310123498171521</v>
+        <v>1.300841606752019</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.065998593529084</v>
@@ -33912,7 +33852,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.273520163251892</v>
+        <v>1.273256559321879</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.161593305981482</v>
